--- a/biology/Botanique/Impatiens_repens/Impatiens_repens.xlsx
+++ b/biology/Botanique/Impatiens_repens/Impatiens_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens repens
-Impatiens repens est une espèce de plantes à fleurs de la famille des Balsaminaceae, endémique du Sri Lanka[2]. Comme l'indique le nom latin repens, il s'agit d'une plante basse au port rampant. Cette plante vivace à feuilles persistantes peut être rencontrée dans les forêts tropicales humides de la zone. Poussant jusqu'à 50 cm de haut et de large, elle a de petites feuilles en forme de rein[Quoi ?] portées sur des tiges rouges, et des fleurs jaunes à capuchon en été et en automne. Elle est parfois cultivée dans les jardins comme plante ornementale. Sous un climat tempéré, elle doit être protégée des températures inférieures à 10 °C, et doit donc être cultivé sous serre pendant l'hiver. Elle nécessite un emplacement abrité à mi-ombre[réf. nécessaire].
+Impatiens repens est une espèce de plantes à fleurs de la famille des Balsaminaceae, endémique du Sri Lanka. Comme l'indique le nom latin repens, il s'agit d'une plante basse au port rampant. Cette plante vivace à feuilles persistantes peut être rencontrée dans les forêts tropicales humides de la zone. Poussant jusqu'à 50 cm de haut et de large, elle a de petites feuilles en forme de rein[Quoi ?] portées sur des tiges rouges, et des fleurs jaunes à capuchon en été et en automne. Elle est parfois cultivée dans les jardins comme plante ornementale. Sous un climat tempéré, elle doit être protégée des températures inférieures à 10 °C, et doit donc être cultivé sous serre pendant l'hiver. Elle nécessite un emplacement abrité à mi-ombre[réf. nécessaire].
 Impatiens repens a gagné la Royal Horticultural Society de Prix du jardin mérite[réf. nécessaire]. 
 Certaines parties de cette plante sont utilisées dans la médecine traditionnelle sri lankaise pour traiter l'épilepsie[réf. nécessaire].
 </t>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Impatiens repens est une plante herbacée à port tentaculaire ou rampant. Les petites feuilles vert clair sont approximativement triangulaires avec des bords arrondis. Les tiges rondes et charnues sont rouge violacé brillant. Les fleurs jaune vif ressemblent à celles du muflier (Antirrhinum majus). Ils sont à symétrie bilatérale et composés de pétales triangulaires à bords froufrous[Quoi ?]. La surface externe du tube floral est densément couverte de poils courts et blancs.
 </t>
